--- a/biology/Botanique/Sarcocephalus/Sarcocephalus.xlsx
+++ b/biology/Botanique/Sarcocephalus/Sarcocephalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Sarcocephalus regroupe deux espèces d'arbres de la famille des Rubiaceae originaires d'Afrique tropicale.
 </t>
@@ -511,12 +523,14 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sarcocephalus latifolius (Sm.) E.A.Bruce,  le pêcher africain, anciennement connu sous le nom de Nauclea latifolia,
 Sarcocephalus pobeguinii Hua ex Pobég.
 Sarcocephalus latifolius donne des fruits comestibles appelés « pêche de Guinée » ou « de Sierra Leone ». Cet arbuste de la famille des Rubiacées, très répandu en Afrique sub-saharienne, est connu comme une plante médicinale, utilisée depuis une centaine d'années en médecine traditionnelle dans des maladies telles que l'épilepsie ou le paludisme mais également pour lutter contre la fièvre, la douleur ou encore les infections. 
-La découverte dans un de ces arbustes de tramadol, une forme simplifiée de la morphine, a fait croire que la plante produisait de façon naturelle ce médicament de synthèse[2]. Une étude plus poussée a montré que le tramadol provenait en réalité du sol souillé par les excréments du bétail à qui il avait été administré.
+La découverte dans un de ces arbustes de tramadol, une forme simplifiée de la morphine, a fait croire que la plante produisait de façon naturelle ce médicament de synthèse. Une étude plus poussée a montré que le tramadol provenait en réalité du sol souillé par les excréments du bétail à qui il avait été administré.
 </t>
         </is>
       </c>
@@ -545,19 +559,21 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                  (1 oct. 2013)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                  (1 oct. 2013) :
 Sarcocephalus latifolius
 Sarcocephalus pobeguinii
-Selon World Checklist of Selected Plant Families (WCSP)  (1 oct. 2013)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (1 oct. 2013) :
 Sarcocephalus latifolius (Sm.) E.A.Bruce (1947)
 Sarcocephalus pobeguinii Hua ex Pobég. (1906)
-Selon NCBI  (1 oct. 2013)[5] :
+Selon NCBI  (1 oct. 2013) :
 Sarcocephalus coadunatus
 Sarcocephalus latifolius
 Sarcocephalus pobeguinii
-Selon Tropicos                                           (1 oct. 2013)[6] :
+Selon Tropicos                                           (1 oct. 2013) :
 Sarcocephalus bartlirgii Miq.
 Sarcocephalus buruensis Miq.
 Sarcocephalus coadunatus (Roxb. ex Sm.) Druce
